--- a/products/facilities/medical-centers/VAMC-Sitemap.xlsx
+++ b/products/facilities/medical-centers/VAMC-Sitemap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/david_pickett_va_gov/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F95A23-8913-4C9D-8D58-1CAA2B8AE850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F809ABE8-22A1-491D-BF06-2A906D759EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="4170" windowWidth="31590" windowHeight="14700" xr2:uid="{B9873244-A41D-44B9-A34C-7941E68771F8}"/>
+    <workbookView xWindow="4035" yWindow="3540" windowWidth="31590" windowHeight="14700" xr2:uid="{B9873244-A41D-44B9-A34C-7941E68771F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>tc={D0C8CA78-A3BA-480B-AFEA-A889FE21219E}</author>
   </authors>
   <commentList>
-    <comment ref="T14" authorId="0" shapeId="0" xr:uid="{D0C8CA78-A3BA-480B-AFEA-A889FE21219E}">
+    <comment ref="T15" authorId="0" shapeId="0" xr:uid="{D0C8CA78-A3BA-480B-AFEA-A889FE21219E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="119">
   <si>
     <t>Page nickname</t>
   </si>
@@ -457,6 +457,21 @@
   </si>
   <si>
     <t>URL Alias</t>
+  </si>
+  <si>
+    <t>SERVICES AND LOCATIONS</t>
+  </si>
+  <si>
+    <t>ABOUT VA REGION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEWS AND EVENTS </t>
+  </si>
+  <si>
+    <t>Menu item</t>
+  </si>
+  <si>
+    <t>&lt;nolink&gt;</t>
   </si>
 </sst>
 </file>
@@ -495,7 +510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +541,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -548,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -579,6 +600,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,7 +922,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="T14" dT="2024-08-26T18:40:42.85" personId="{00305868-77C0-47BD-B3F2-37BA716617D2}" id="{D0C8CA78-A3BA-480B-AFEA-A889FE21219E}">
+  <threadedComment ref="T15" dT="2024-08-26T18:40:42.85" personId="{00305868-77C0-47BD-B3F2-37BA716617D2}" id="{D0C8CA78-A3BA-480B-AFEA-A889FE21219E}">
     <text>Rename in Drupal to add VAMC?</text>
   </threadedComment>
 </ThreadedComments>
@@ -907,11 +930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39474C66-3B8C-4A3B-95B9-8C639C0D660F}">
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T32" sqref="T32:U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1351,7 +1374,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="10" t="str">
-        <f t="shared" ref="P8:P14" si="3">_xlfn.CONCAT("/",L8,M8)</f>
+        <f t="shared" ref="P8:P15" si="3">_xlfn.CONCAT("/",L8,M8)</f>
         <v>/region-health-care/billing-and-insurance/</v>
       </c>
       <c r="Q8" s="2" t="str">
@@ -1690,199 +1713,155 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="10" t="str">
-        <f t="shared" ref="F14" si="13">C14</f>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" t="s">
+        <v>117</v>
+      </c>
+      <c r="U14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="10" t="str">
+        <f t="shared" ref="F15" si="13">C15</f>
         <v>Health services</v>
       </c>
-      <c r="G14" s="2" t="str">
-        <f t="shared" ref="G14" si="14">_xlfn.CONCAT(" &gt; ",  B14)</f>
+      <c r="G15" s="2" t="str">
+        <f t="shared" ref="G15" si="14">_xlfn.CONCAT(" &gt; ",  B15)</f>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
-      <c r="H14" s="2" t="str">
-        <f t="shared" ref="H14" si="15">_xlfn.CONCAT(" &gt; ",  C14)</f>
+      <c r="H15" s="2" t="str">
+        <f t="shared" ref="H15" si="15">_xlfn.CONCAT(" &gt; ",  C15)</f>
         <v xml:space="preserve"> &gt; Health services</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="10" t="str">
-        <f t="shared" ref="K14" si="16">_xlfn.CONCAT("VA.gov home",G14,H14)</f>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="10" t="str">
+        <f t="shared" ref="K15" si="16">_xlfn.CONCAT("VA.gov home",G15,H15)</f>
         <v>VA.gov home &gt; Region health care &gt; Health services</v>
       </c>
-      <c r="L14" s="2" t="str">
-        <f t="shared" ref="L14" si="17">_xlfn.CONCAT(LOWER(SUBSTITUTE(B14," ","-")),"/")</f>
+      <c r="L15" s="2" t="str">
+        <f t="shared" ref="L15" si="17">_xlfn.CONCAT(LOWER(SUBSTITUTE(B15," ","-")),"/")</f>
         <v>region-health-care/</v>
       </c>
-      <c r="M14" s="2" t="str">
-        <f t="shared" ref="M14" si="18">_xlfn.CONCAT(LOWER(SUBSTITUTE(C14," ","-")),"/")</f>
+      <c r="M15" s="2" t="str">
+        <f t="shared" ref="M15" si="18">_xlfn.CONCAT(LOWER(SUBSTITUTE(C15," ","-")),"/")</f>
         <v>health-services/</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="10" t="str">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="10" t="str">
         <f t="shared" si="3"/>
         <v>/region-health-care/health-services/</v>
       </c>
-      <c r="Q14" s="2" t="str">
-        <f t="shared" ref="Q14" si="19">_xlfn.CONCAT(" ", PROPER(B14)," |")</f>
+      <c r="Q15" s="2" t="str">
+        <f t="shared" ref="Q15" si="19">_xlfn.CONCAT(" ", PROPER(B15)," |")</f>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
-      <c r="R14" s="2" t="str">
-        <f t="shared" ref="R14" si="20">_xlfn.CONCAT(PROPER(C14)," |")</f>
+      <c r="R15" s="2" t="str">
+        <f t="shared" ref="R15" si="20">_xlfn.CONCAT(PROPER(C15)," |")</f>
         <v>Health Services |</v>
       </c>
-      <c r="S14" s="4" t="str">
-        <f t="shared" ref="S14:S15" si="21">_xlfn.CONCAT(R14,Q14," Veterans Affairs")</f>
+      <c r="S15" s="4" t="str">
+        <f t="shared" ref="S15:S16" si="21">_xlfn.CONCAT(R15,Q15," Veterans Affairs")</f>
         <v>Health Services | Region Health Care | Veterans Affairs</v>
       </c>
-      <c r="T14" s="17" t="s">
+      <c r="T15" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="10" t="str">
-        <f>D15</f>
+      <c r="E16" s="14"/>
+      <c r="F16" s="10" t="str">
+        <f>D16</f>
         <v>Caregiver support</v>
       </c>
-      <c r="G15" s="2" t="str">
-        <f>_xlfn.CONCAT(" &gt; ",  B15)</f>
+      <c r="G16" s="2" t="str">
+        <f>_xlfn.CONCAT(" &gt; ",  B16)</f>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
-      <c r="H15" s="2" t="str">
-        <f>_xlfn.CONCAT(" &gt; ",  C15)</f>
+      <c r="H16" s="2" t="str">
+        <f>_xlfn.CONCAT(" &gt; ",  C16)</f>
         <v xml:space="preserve"> &gt; Health services</v>
       </c>
-      <c r="I15" s="2" t="str">
-        <f>_xlfn.CONCAT(" &gt; ",  D15)</f>
+      <c r="I16" s="2" t="str">
+        <f>_xlfn.CONCAT(" &gt; ",  D16)</f>
         <v xml:space="preserve"> &gt; Caregiver support</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="10" t="str">
-        <f>_xlfn.CONCAT("VA.gov home",G15,H15,I15)</f>
+      <c r="J16" s="2"/>
+      <c r="K16" s="10" t="str">
+        <f>_xlfn.CONCAT("VA.gov home",G16,H16,I16)</f>
         <v>VA.gov home &gt; Region health care &gt; Health services &gt; Caregiver support</v>
       </c>
-      <c r="L15" s="2" t="str">
-        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(B15," ","-")),"/")</f>
+      <c r="L16" s="2" t="str">
+        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(B16," ","-")),"/")</f>
         <v>region-health-care/</v>
       </c>
-      <c r="M15" s="2" t="str">
-        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(C15," ","-")),"/")</f>
+      <c r="M16" s="2" t="str">
+        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(C16," ","-")),"/")</f>
         <v>health-services/</v>
       </c>
-      <c r="N15" s="2" t="str">
-        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(D15," ","-")),"/")</f>
+      <c r="N16" s="2" t="str">
+        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(D16," ","-")),"/")</f>
         <v>caregiver-support/</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="10" t="str">
-        <f>_xlfn.CONCAT("/",L15,M15,N15)</f>
+      <c r="O16" s="2"/>
+      <c r="P16" s="10" t="str">
+        <f>_xlfn.CONCAT("/",L16,M16,N16)</f>
         <v>/region-health-care/health-services/caregiver-support/</v>
       </c>
-      <c r="Q15" s="2" t="str">
-        <f>_xlfn.CONCAT(" ", PROPER(B15)," |")</f>
+      <c r="Q16" s="2" t="str">
+        <f>_xlfn.CONCAT(" ", PROPER(B16)," |")</f>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
-      <c r="R15" s="2" t="str">
-        <f>_xlfn.CONCAT(PROPER(D15)," |")</f>
+      <c r="R16" s="2" t="str">
+        <f>_xlfn.CONCAT(PROPER(D16)," |")</f>
         <v>Caregiver Support |</v>
       </c>
-      <c r="S15" s="4" t="str">
+      <c r="S16" s="4" t="str">
         <f t="shared" si="21"/>
         <v>Caregiver Support | Region Health Care | Veterans Affairs</v>
       </c>
-      <c r="T15" t="s">
-        <v>37</v>
-      </c>
-      <c r="U15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="10" t="str">
-        <f t="shared" ref="F16:F22" si="22">D16</f>
-        <v>Homeless Veteran care</v>
-      </c>
-      <c r="G16" s="2" t="str">
-        <f t="shared" ref="G16:G22" si="23">_xlfn.CONCAT(" &gt; ",  B16)</f>
-        <v xml:space="preserve"> &gt; Region health care</v>
-      </c>
-      <c r="H16" s="2" t="str">
-        <f t="shared" ref="H16:H22" si="24">_xlfn.CONCAT(" &gt; ",  C16)</f>
-        <v xml:space="preserve"> &gt; Health services</v>
-      </c>
-      <c r="I16" s="2" t="str">
-        <f t="shared" ref="I16:I22" si="25">_xlfn.CONCAT(" &gt; ",  D16)</f>
-        <v xml:space="preserve"> &gt; Homeless Veteran care</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="10" t="str">
-        <f t="shared" ref="K16:K22" si="26">_xlfn.CONCAT("VA.gov home",G16,H16,I16)</f>
-        <v>VA.gov home &gt; Region health care &gt; Health services &gt; Homeless Veteran care</v>
-      </c>
-      <c r="L16" s="2" t="str">
-        <f t="shared" ref="L16:L22" si="27">_xlfn.CONCAT(LOWER(SUBSTITUTE(B16," ","-")),"/")</f>
-        <v>region-health-care/</v>
-      </c>
-      <c r="M16" s="2" t="str">
-        <f t="shared" ref="M16:M22" si="28">_xlfn.CONCAT(LOWER(SUBSTITUTE(C16," ","-")),"/")</f>
-        <v>health-services/</v>
-      </c>
-      <c r="N16" s="2" t="str">
-        <f t="shared" ref="N16:N22" si="29">_xlfn.CONCAT(LOWER(SUBSTITUTE(D16," ","-")),"/")</f>
-        <v>homeless-veteran-care/</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="10" t="str">
-        <f t="shared" ref="P16:P23" si="30">_xlfn.CONCAT("/",L16,M16,N16)</f>
-        <v>/region-health-care/health-services/homeless-veteran-care/</v>
-      </c>
-      <c r="Q16" s="2" t="str">
-        <f t="shared" ref="Q16:Q22" si="31">_xlfn.CONCAT(" ", PROPER(B16)," |")</f>
-        <v xml:space="preserve"> Region Health Care |</v>
-      </c>
-      <c r="R16" s="2" t="str">
-        <f t="shared" ref="R16:R22" si="32">_xlfn.CONCAT(PROPER(D16)," |")</f>
-        <v>Homeless Veteran Care |</v>
-      </c>
-      <c r="S16" s="4" t="str">
-        <f t="shared" ref="S16:S22" si="33">_xlfn.CONCAT(R16,Q16," Veterans Affairs")</f>
-        <v>Homeless Veteran Care | Region Health Care | Veterans Affairs</v>
-      </c>
       <c r="T16" t="s">
         <v>37</v>
       </c>
@@ -1892,7 +1871,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1901,58 +1880,58 @@
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v>LGBT Veteran care</v>
+        <f t="shared" ref="F17:F23" si="22">D17</f>
+        <v>Homeless Veteran care</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="G17:G23" si="23">_xlfn.CONCAT(" &gt; ",  B17)</f>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="H17:H23" si="24">_xlfn.CONCAT(" &gt; ",  C17)</f>
         <v xml:space="preserve"> &gt; Health services</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve"> &gt; LGBT Veteran care</v>
+        <f t="shared" ref="I17:I23" si="25">_xlfn.CONCAT(" &gt; ",  D17)</f>
+        <v xml:space="preserve"> &gt; Homeless Veteran care</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v>VA.gov home &gt; Region health care &gt; Health services &gt; LGBT Veteran care</v>
+        <f t="shared" ref="K17:K23" si="26">_xlfn.CONCAT("VA.gov home",G17,H17,I17)</f>
+        <v>VA.gov home &gt; Region health care &gt; Health services &gt; Homeless Veteran care</v>
       </c>
       <c r="L17" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="L17:L23" si="27">_xlfn.CONCAT(LOWER(SUBSTITUTE(B17," ","-")),"/")</f>
         <v>region-health-care/</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="M17:M23" si="28">_xlfn.CONCAT(LOWER(SUBSTITUTE(C17," ","-")),"/")</f>
         <v>health-services/</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>lgbt-veteran-care/</v>
+        <f t="shared" ref="N17:N23" si="29">_xlfn.CONCAT(LOWER(SUBSTITUTE(D17," ","-")),"/")</f>
+        <v>homeless-veteran-care/</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="10" t="str">
-        <f t="shared" si="30"/>
-        <v>/region-health-care/health-services/lgbt-veteran-care/</v>
+        <f t="shared" ref="P17:P24" si="30">_xlfn.CONCAT("/",L17,M17,N17)</f>
+        <v>/region-health-care/health-services/homeless-veteran-care/</v>
       </c>
       <c r="Q17" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="Q17:Q23" si="31">_xlfn.CONCAT(" ", PROPER(B17)," |")</f>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R17" s="2" t="str">
-        <f t="shared" si="32"/>
-        <v>Lgbt Veteran Care |</v>
+        <f t="shared" ref="R17:R23" si="32">_xlfn.CONCAT(PROPER(D17)," |")</f>
+        <v>Homeless Veteran Care |</v>
       </c>
       <c r="S17" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>Lgbt Veteran Care | Region Health Care | Veterans Affairs</v>
+        <f t="shared" ref="S17:S23" si="33">_xlfn.CONCAT(R17,Q17," Veterans Affairs")</f>
+        <v>Homeless Veteran Care | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T17" t="s">
         <v>37</v>
@@ -1963,7 +1942,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1972,12 +1951,12 @@
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="10" t="str">
         <f t="shared" si="22"/>
-        <v>Mental health care</v>
+        <v>LGBT Veteran care</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="23"/>
@@ -1989,12 +1968,12 @@
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve"> &gt; Mental health care</v>
+        <v xml:space="preserve"> &gt; LGBT Veteran care</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="10" t="str">
         <f t="shared" si="26"/>
-        <v>VA.gov home &gt; Region health care &gt; Health services &gt; Mental health care</v>
+        <v>VA.gov home &gt; Region health care &gt; Health services &gt; LGBT Veteran care</v>
       </c>
       <c r="L18" s="2" t="str">
         <f t="shared" si="27"/>
@@ -2006,12 +1985,12 @@
       </c>
       <c r="N18" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>mental-health-care/</v>
+        <v>lgbt-veteran-care/</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="10" t="str">
         <f t="shared" si="30"/>
-        <v>/region-health-care/health-services/mental-health-care/</v>
+        <v>/region-health-care/health-services/lgbt-veteran-care/</v>
       </c>
       <c r="Q18" s="2" t="str">
         <f t="shared" si="31"/>
@@ -2019,11 +1998,11 @@
       </c>
       <c r="R18" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>Mental Health Care |</v>
+        <v>Lgbt Veteran Care |</v>
       </c>
       <c r="S18" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>Mental Health Care | Region Health Care | Veterans Affairs</v>
+        <v>Lgbt Veteran Care | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T18" t="s">
         <v>37</v>
@@ -2034,7 +2013,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -2043,12 +2022,12 @@
         <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="10" t="str">
         <f t="shared" si="22"/>
-        <v>Minority Veteran care</v>
+        <v>Mental health care</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="23"/>
@@ -2060,12 +2039,12 @@
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve"> &gt; Minority Veteran care</v>
+        <v xml:space="preserve"> &gt; Mental health care</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="10" t="str">
         <f t="shared" si="26"/>
-        <v>VA.gov home &gt; Region health care &gt; Health services &gt; Minority Veteran care</v>
+        <v>VA.gov home &gt; Region health care &gt; Health services &gt; Mental health care</v>
       </c>
       <c r="L19" s="2" t="str">
         <f t="shared" si="27"/>
@@ -2077,12 +2056,12 @@
       </c>
       <c r="N19" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>minority-veteran-care/</v>
+        <v>mental-health-care/</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="10" t="str">
         <f t="shared" si="30"/>
-        <v>/region-health-care/health-services/minority-veteran-care/</v>
+        <v>/region-health-care/health-services/mental-health-care/</v>
       </c>
       <c r="Q19" s="2" t="str">
         <f t="shared" si="31"/>
@@ -2090,11 +2069,11 @@
       </c>
       <c r="R19" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>Minority Veteran Care |</v>
+        <v>Mental Health Care |</v>
       </c>
       <c r="S19" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>Minority Veteran Care | Region Health Care | Veterans Affairs</v>
+        <v>Mental Health Care | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T19" t="s">
         <v>37</v>
@@ -2105,7 +2084,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -2114,12 +2093,12 @@
         <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="10" t="str">
         <f t="shared" si="22"/>
-        <v>Patient advocates</v>
+        <v>Minority Veteran care</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="23"/>
@@ -2131,12 +2110,12 @@
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve"> &gt; Patient advocates</v>
+        <v xml:space="preserve"> &gt; Minority Veteran care</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="10" t="str">
         <f t="shared" si="26"/>
-        <v>VA.gov home &gt; Region health care &gt; Health services &gt; Patient advocates</v>
+        <v>VA.gov home &gt; Region health care &gt; Health services &gt; Minority Veteran care</v>
       </c>
       <c r="L20" s="2" t="str">
         <f t="shared" si="27"/>
@@ -2148,12 +2127,12 @@
       </c>
       <c r="N20" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>patient-advocates/</v>
+        <v>minority-veteran-care/</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="10" t="str">
         <f t="shared" si="30"/>
-        <v>/region-health-care/health-services/patient-advocates/</v>
+        <v>/region-health-care/health-services/minority-veteran-care/</v>
       </c>
       <c r="Q20" s="2" t="str">
         <f t="shared" si="31"/>
@@ -2161,11 +2140,11 @@
       </c>
       <c r="R20" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>Patient Advocates |</v>
+        <v>Minority Veteran Care |</v>
       </c>
       <c r="S20" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>Patient Advocates | Region Health Care | Veterans Affairs</v>
+        <v>Minority Veteran Care | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T20" t="s">
         <v>37</v>
@@ -2176,7 +2155,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -2185,58 +2164,58 @@
         <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="10" t="str">
-        <f>D21</f>
-        <v>Returning service members</v>
+        <f t="shared" si="22"/>
+        <v>Patient advocates</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f>_xlfn.CONCAT(" &gt; ",  B21)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f>_xlfn.CONCAT(" &gt; ",  C21)</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> &gt; Health services</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f>_xlfn.CONCAT(" &gt; ",  D21)</f>
-        <v xml:space="preserve"> &gt; Returning service members</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve"> &gt; Patient advocates</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="10" t="str">
-        <f>_xlfn.CONCAT("VA.gov home",G21,H21,I21)</f>
-        <v>VA.gov home &gt; Region health care &gt; Health services &gt; Returning service members</v>
+        <f t="shared" si="26"/>
+        <v>VA.gov home &gt; Region health care &gt; Health services &gt; Patient advocates</v>
       </c>
       <c r="L21" s="2" t="str">
-        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(B21," ","-")),"/")</f>
+        <f t="shared" si="27"/>
         <v>region-health-care/</v>
       </c>
       <c r="M21" s="2" t="str">
-        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(C21," ","-")),"/")</f>
+        <f t="shared" si="28"/>
         <v>health-services/</v>
       </c>
       <c r="N21" s="2" t="str">
-        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(D21," ","-")),"/")</f>
-        <v>returning-service-members/</v>
+        <f t="shared" si="29"/>
+        <v>patient-advocates/</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="10" t="str">
         <f t="shared" si="30"/>
-        <v>/region-health-care/health-services/returning-service-members/</v>
+        <v>/region-health-care/health-services/patient-advocates/</v>
       </c>
       <c r="Q21" s="2" t="str">
-        <f>_xlfn.CONCAT(" ", PROPER(B21)," |")</f>
+        <f t="shared" si="31"/>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R21" s="2" t="str">
-        <f>_xlfn.CONCAT(PROPER(D21)," |")</f>
-        <v>Returning Service Members |</v>
+        <f t="shared" si="32"/>
+        <v>Patient Advocates |</v>
       </c>
       <c r="S21" s="4" t="str">
-        <f>_xlfn.CONCAT(R21,Q21," Veterans Affairs")</f>
-        <v>Returning Service Members | Region Health Care | Veterans Affairs</v>
+        <f t="shared" si="33"/>
+        <v>Patient Advocates | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T21" t="s">
         <v>37</v>
@@ -2247,7 +2226,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -2256,58 +2235,58 @@
         <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="10" t="str">
-        <f t="shared" si="22"/>
-        <v>Suicide prevention</v>
+        <f>D22</f>
+        <v>Returning service members</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f>_xlfn.CONCAT(" &gt; ",  B22)</f>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f>_xlfn.CONCAT(" &gt; ",  C22)</f>
         <v xml:space="preserve"> &gt; Health services</v>
       </c>
       <c r="I22" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve"> &gt; Suicide prevention</v>
+        <f>_xlfn.CONCAT(" &gt; ",  D22)</f>
+        <v xml:space="preserve"> &gt; Returning service members</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v>VA.gov home &gt; Region health care &gt; Health services &gt; Suicide prevention</v>
+        <f>_xlfn.CONCAT("VA.gov home",G22,H22,I22)</f>
+        <v>VA.gov home &gt; Region health care &gt; Health services &gt; Returning service members</v>
       </c>
       <c r="L22" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(B22," ","-")),"/")</f>
         <v>region-health-care/</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(C22," ","-")),"/")</f>
         <v>health-services/</v>
       </c>
       <c r="N22" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>suicide-prevention/</v>
+        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(D22," ","-")),"/")</f>
+        <v>returning-service-members/</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="10" t="str">
         <f t="shared" si="30"/>
-        <v>/region-health-care/health-services/suicide-prevention/</v>
+        <v>/region-health-care/health-services/returning-service-members/</v>
       </c>
       <c r="Q22" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f>_xlfn.CONCAT(" ", PROPER(B22)," |")</f>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R22" s="2" t="str">
-        <f t="shared" si="32"/>
-        <v>Suicide Prevention |</v>
+        <f>_xlfn.CONCAT(PROPER(D22)," |")</f>
+        <v>Returning Service Members |</v>
       </c>
       <c r="S22" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>Suicide Prevention | Region Health Care | Veterans Affairs</v>
+        <f>_xlfn.CONCAT(R22,Q22," Veterans Affairs")</f>
+        <v>Returning Service Members | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T22" t="s">
         <v>37</v>
@@ -2318,7 +2297,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -2327,58 +2306,58 @@
         <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="10" t="str">
-        <f t="shared" ref="F23" si="34">D23</f>
-        <v>Women Veteran care</v>
+        <f t="shared" si="22"/>
+        <v>Suicide prevention</v>
       </c>
       <c r="G23" s="2" t="str">
-        <f t="shared" ref="G23:G24" si="35">_xlfn.CONCAT(" &gt; ",  B23)</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f t="shared" ref="H23:H24" si="36">_xlfn.CONCAT(" &gt; ",  C23)</f>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> &gt; Health services</v>
       </c>
       <c r="I23" s="2" t="str">
-        <f t="shared" ref="I23" si="37">_xlfn.CONCAT(" &gt; ",  D23)</f>
-        <v xml:space="preserve"> &gt; Women Veteran care</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve"> &gt; Suicide prevention</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="10" t="str">
-        <f t="shared" ref="K23" si="38">_xlfn.CONCAT("VA.gov home",G23,H23,I23)</f>
-        <v>VA.gov home &gt; Region health care &gt; Health services &gt; Women Veteran care</v>
+        <f t="shared" si="26"/>
+        <v>VA.gov home &gt; Region health care &gt; Health services &gt; Suicide prevention</v>
       </c>
       <c r="L23" s="2" t="str">
-        <f t="shared" ref="L23:L24" si="39">_xlfn.CONCAT(LOWER(SUBSTITUTE(B23," ","-")),"/")</f>
+        <f t="shared" si="27"/>
         <v>region-health-care/</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f t="shared" ref="M23:M24" si="40">_xlfn.CONCAT(LOWER(SUBSTITUTE(C23," ","-")),"/")</f>
+        <f t="shared" si="28"/>
         <v>health-services/</v>
       </c>
       <c r="N23" s="2" t="str">
-        <f t="shared" ref="N23" si="41">_xlfn.CONCAT(LOWER(SUBSTITUTE(D23," ","-")),"/")</f>
-        <v>women-veteran-care/</v>
+        <f t="shared" si="29"/>
+        <v>suicide-prevention/</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="10" t="str">
         <f t="shared" si="30"/>
-        <v>/region-health-care/health-services/women-veteran-care/</v>
+        <v>/region-health-care/health-services/suicide-prevention/</v>
       </c>
       <c r="Q23" s="2" t="str">
-        <f t="shared" ref="Q23:Q24" si="42">_xlfn.CONCAT(" ", PROPER(B23)," |")</f>
+        <f t="shared" si="31"/>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R23" s="2" t="str">
-        <f t="shared" ref="R23" si="43">_xlfn.CONCAT(PROPER(D23)," |")</f>
-        <v>Women Veteran Care |</v>
+        <f t="shared" si="32"/>
+        <v>Suicide Prevention |</v>
       </c>
       <c r="S23" s="4" t="str">
-        <f t="shared" ref="S23:S25" si="44">_xlfn.CONCAT(R23,Q23," Veterans Affairs")</f>
-        <v>Women Veteran Care | Region Health Care | Veterans Affairs</v>
+        <f t="shared" si="33"/>
+        <v>Suicide Prevention | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T23" t="s">
         <v>37</v>
@@ -2389,135 +2368,138 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="10" t="str">
-        <f t="shared" ref="F24" si="45">C24</f>
+        <f t="shared" ref="F24" si="34">D24</f>
+        <v>Women Veteran care</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f t="shared" ref="G24:G25" si="35">_xlfn.CONCAT(" &gt; ",  B24)</f>
+        <v xml:space="preserve"> &gt; Region health care</v>
+      </c>
+      <c r="H24" s="2" t="str">
+        <f t="shared" ref="H24:H25" si="36">_xlfn.CONCAT(" &gt; ",  C24)</f>
+        <v xml:space="preserve"> &gt; Health services</v>
+      </c>
+      <c r="I24" s="2" t="str">
+        <f t="shared" ref="I24" si="37">_xlfn.CONCAT(" &gt; ",  D24)</f>
+        <v xml:space="preserve"> &gt; Women Veteran care</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="10" t="str">
+        <f t="shared" ref="K24" si="38">_xlfn.CONCAT("VA.gov home",G24,H24,I24)</f>
+        <v>VA.gov home &gt; Region health care &gt; Health services &gt; Women Veteran care</v>
+      </c>
+      <c r="L24" s="2" t="str">
+        <f t="shared" ref="L24:L25" si="39">_xlfn.CONCAT(LOWER(SUBSTITUTE(B24," ","-")),"/")</f>
+        <v>region-health-care/</v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f t="shared" ref="M24:M25" si="40">_xlfn.CONCAT(LOWER(SUBSTITUTE(C24," ","-")),"/")</f>
+        <v>health-services/</v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f t="shared" ref="N24" si="41">_xlfn.CONCAT(LOWER(SUBSTITUTE(D24," ","-")),"/")</f>
+        <v>women-veteran-care/</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v>/region-health-care/health-services/women-veteran-care/</v>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <f t="shared" ref="Q24:Q25" si="42">_xlfn.CONCAT(" ", PROPER(B24)," |")</f>
+        <v xml:space="preserve"> Region Health Care |</v>
+      </c>
+      <c r="R24" s="2" t="str">
+        <f t="shared" ref="R24" si="43">_xlfn.CONCAT(PROPER(D24)," |")</f>
+        <v>Women Veteran Care |</v>
+      </c>
+      <c r="S24" s="4" t="str">
+        <f t="shared" ref="S24:S26" si="44">_xlfn.CONCAT(R24,Q24," Veterans Affairs")</f>
+        <v>Women Veteran Care | Region Health Care | Veterans Affairs</v>
+      </c>
+      <c r="T24" t="s">
+        <v>37</v>
+      </c>
+      <c r="U24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="10" t="str">
+        <f t="shared" ref="F25" si="45">C25</f>
         <v>Locations</v>
       </c>
-      <c r="G24" s="2" t="str">
+      <c r="G25" s="2" t="str">
         <f t="shared" si="35"/>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
-      <c r="H24" s="2" t="str">
+      <c r="H25" s="2" t="str">
         <f t="shared" si="36"/>
         <v xml:space="preserve"> &gt; Locations</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="10" t="str">
-        <f t="shared" ref="K24" si="46">_xlfn.CONCAT("VA.gov home",G24,H24)</f>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="10" t="str">
+        <f t="shared" ref="K25" si="46">_xlfn.CONCAT("VA.gov home",G25,H25)</f>
         <v>VA.gov home &gt; Region health care &gt; Locations</v>
       </c>
-      <c r="L24" s="2" t="str">
+      <c r="L25" s="2" t="str">
         <f t="shared" si="39"/>
         <v>region-health-care/</v>
       </c>
-      <c r="M24" s="2" t="str">
+      <c r="M25" s="2" t="str">
         <f t="shared" si="40"/>
         <v>locations/</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="10" t="str">
-        <f>_xlfn.CONCAT("/",L24,M24)</f>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="10" t="str">
+        <f>_xlfn.CONCAT("/",L25,M25)</f>
         <v>/region-health-care/locations/</v>
       </c>
-      <c r="Q24" s="2" t="str">
+      <c r="Q25" s="2" t="str">
         <f t="shared" si="42"/>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
-      <c r="R24" s="2" t="str">
-        <f t="shared" ref="R24" si="47">_xlfn.CONCAT(PROPER(C24)," |")</f>
+      <c r="R25" s="2" t="str">
+        <f t="shared" ref="R25" si="47">_xlfn.CONCAT(PROPER(C25)," |")</f>
         <v>Locations |</v>
       </c>
-      <c r="S24" s="4" t="str">
+      <c r="S25" s="4" t="str">
         <f t="shared" si="44"/>
         <v>Locations | Region Health Care | Veterans Affairs</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T25" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="10" t="str">
-        <f>D25</f>
-        <v>Facility 1</v>
-      </c>
-      <c r="G25" s="2" t="str">
-        <f t="shared" ref="G25:I26" si="48">_xlfn.CONCAT(" &gt; ",  B25)</f>
-        <v xml:space="preserve"> &gt; Region health care</v>
-      </c>
-      <c r="H25" s="2" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve"> &gt; Locations</v>
-      </c>
-      <c r="I25" s="2" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve"> &gt; Facility 1</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="10" t="str">
-        <f>_xlfn.CONCAT("VA.gov home",G25,H25,I25)</f>
-        <v>VA.gov home &gt; Region health care &gt; Locations &gt; Facility 1</v>
-      </c>
-      <c r="L25" s="2" t="str">
-        <f t="shared" ref="L25:N26" si="49">_xlfn.CONCAT(LOWER(SUBSTITUTE(B25," ","-")),"/")</f>
-        <v>region-health-care/</v>
-      </c>
-      <c r="M25" s="2" t="str">
-        <f t="shared" si="49"/>
-        <v>locations/</v>
-      </c>
-      <c r="N25" s="2" t="str">
-        <f t="shared" si="49"/>
-        <v>facility-1/</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="10" t="str">
-        <f>_xlfn.CONCAT("/",L25,M25,N25)</f>
-        <v>/region-health-care/locations/facility-1/</v>
-      </c>
-      <c r="Q25" s="2" t="str">
-        <f>_xlfn.CONCAT(" ", PROPER(B25)," |")</f>
-        <v xml:space="preserve"> Region Health Care |</v>
-      </c>
-      <c r="R25" s="2" t="str">
-        <f>_xlfn.CONCAT(PROPER(D25)," |")</f>
-        <v>Facility 1 |</v>
-      </c>
-      <c r="S25" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>Facility 1 | Region Health Care | Veterans Affairs</v>
-      </c>
-      <c r="T25" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -2526,15 +2508,15 @@
         <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="10" t="str">
         <f>D26</f>
-        <v>Facility 2</v>
+        <v>Facility 1</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="G26:I27" si="48">_xlfn.CONCAT(" &gt; ",  B26)</f>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H26" s="2" t="str">
@@ -2543,15 +2525,15 @@
       </c>
       <c r="I26" s="2" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve"> &gt; Facility 2</v>
+        <v xml:space="preserve"> &gt; Facility 1</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="10" t="str">
         <f>_xlfn.CONCAT("VA.gov home",G26,H26,I26)</f>
-        <v>VA.gov home &gt; Region health care &gt; Locations &gt; Facility 2</v>
+        <v>VA.gov home &gt; Region health care &gt; Locations &gt; Facility 1</v>
       </c>
       <c r="L26" s="2" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="L26:N27" si="49">_xlfn.CONCAT(LOWER(SUBSTITUTE(B26," ","-")),"/")</f>
         <v>region-health-care/</v>
       </c>
       <c r="M26" s="2" t="str">
@@ -2560,411 +2542,336 @@
       </c>
       <c r="N26" s="2" t="str">
         <f t="shared" si="49"/>
-        <v>facility-2/</v>
+        <v>facility-1/</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="10" t="str">
         <f>_xlfn.CONCAT("/",L26,M26,N26)</f>
-        <v>/region-health-care/locations/facility-2/</v>
+        <v>/region-health-care/locations/facility-1/</v>
       </c>
       <c r="Q26" s="2" t="str">
-        <f>_xlfn.CONCAT(" ", PROPER(B26)," |")</f>
+        <f t="shared" ref="Q26:Q35" si="50">_xlfn.CONCAT(" ", PROPER(B26)," |")</f>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R26" s="2" t="str">
         <f>_xlfn.CONCAT(PROPER(D26)," |")</f>
-        <v>Facility 2 |</v>
+        <v>Facility 1 |</v>
       </c>
       <c r="S26" s="4" t="str">
-        <f t="shared" ref="S26" si="50">_xlfn.CONCAT(R26,Q26," Veterans Affairs")</f>
-        <v>Facility 2 | Region Health Care | Veterans Affairs</v>
+        <f t="shared" si="44"/>
+        <v>Facility 1 | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T26" t="s">
         <v>63</v>
       </c>
-      <c r="U26" s="17" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="10" t="str">
-        <f>C27</f>
-        <v>Events</v>
+        <f>D27</f>
+        <v>Facility 2</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f t="shared" ref="G27:H29" si="51">_xlfn.CONCAT(" &gt; ",  B27)</f>
+        <f t="shared" si="48"/>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f t="shared" si="51"/>
-        <v xml:space="preserve"> &gt; Events</v>
-      </c>
-      <c r="I27" s="2"/>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve"> &gt; Locations</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v xml:space="preserve"> &gt; Facility 2</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="10" t="str">
-        <f>_xlfn.CONCAT("VA.gov home",G27,H27)</f>
-        <v>VA.gov home &gt; Region health care &gt; Events</v>
+        <f>_xlfn.CONCAT("VA.gov home",G27,H27,I27)</f>
+        <v>VA.gov home &gt; Region health care &gt; Locations &gt; Facility 2</v>
       </c>
       <c r="L27" s="2" t="str">
-        <f t="shared" ref="L27:M29" si="52">_xlfn.CONCAT(LOWER(SUBSTITUTE(B27," ","-")),"/")</f>
+        <f t="shared" si="49"/>
         <v>region-health-care/</v>
       </c>
       <c r="M27" s="2" t="str">
-        <f t="shared" si="52"/>
-        <v>events/</v>
-      </c>
-      <c r="N27" s="2"/>
+        <f t="shared" si="49"/>
+        <v>locations/</v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>facility-2/</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="10" t="str">
-        <f>_xlfn.CONCAT("/",L27,M27)</f>
-        <v>/region-health-care/events/</v>
+        <f>_xlfn.CONCAT("/",L27,M27,N27)</f>
+        <v>/region-health-care/locations/facility-2/</v>
       </c>
       <c r="Q27" s="2" t="str">
-        <f>_xlfn.CONCAT(" ", PROPER(B27)," |")</f>
+        <f t="shared" si="50"/>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R27" s="2" t="str">
-        <f>_xlfn.CONCAT(PROPER(C27)," |")</f>
-        <v>Events |</v>
+        <f>_xlfn.CONCAT(PROPER(D27)," |")</f>
+        <v>Facility 2 |</v>
       </c>
       <c r="S27" s="4" t="str">
-        <f t="shared" ref="S27" si="53">_xlfn.CONCAT(R27,Q27," Veterans Affairs")</f>
-        <v>Events | Region Health Care | Veterans Affairs</v>
+        <f t="shared" ref="S27" si="51">_xlfn.CONCAT(R27,Q27," Veterans Affairs")</f>
+        <v>Facility 2 | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T27" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="U27" s="17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>116</v>
+      </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="10" t="str">
-        <f>C28</f>
-        <v>News releases</v>
-      </c>
-      <c r="G28" s="2" t="str">
-        <f t="shared" si="51"/>
-        <v xml:space="preserve"> &gt; Region health care</v>
-      </c>
-      <c r="H28" s="2" t="str">
-        <f t="shared" si="51"/>
-        <v xml:space="preserve"> &gt; News releases</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="10" t="str">
-        <f>_xlfn.CONCAT("VA.gov home",G28,H28)</f>
-        <v>VA.gov home &gt; Region health care &gt; News releases</v>
-      </c>
-      <c r="L28" s="2" t="str">
-        <f t="shared" si="52"/>
-        <v>region-health-care/</v>
-      </c>
-      <c r="M28" s="2" t="str">
-        <f t="shared" si="52"/>
-        <v>news-releases/</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="10" t="str">
-        <f t="shared" ref="P28:P30" si="54">_xlfn.CONCAT("/",L28,M28)</f>
-        <v>/region-health-care/news-releases/</v>
-      </c>
-      <c r="Q28" s="2" t="str">
-        <f>_xlfn.CONCAT(" ", PROPER(B28)," |")</f>
-        <v xml:space="preserve"> Region Health Care |</v>
-      </c>
-      <c r="R28" s="2" t="str">
-        <f>_xlfn.CONCAT(PROPER(C28)," |")</f>
-        <v>News Releases |</v>
-      </c>
-      <c r="S28" s="4" t="str">
-        <f t="shared" ref="S28" si="55">_xlfn.CONCAT(R28,Q28," Veterans Affairs")</f>
-        <v>News Releases | Region Health Care | Veterans Affairs</v>
-      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
       <c r="T28" t="s">
-        <v>70</v>
+        <v>117</v>
+      </c>
+      <c r="U28" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="14"/>
       <c r="F29" s="10" t="str">
         <f>C29</f>
-        <v>Stories</v>
+        <v>Events</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="G29:H31" si="52">_xlfn.CONCAT(" &gt; ",  B29)</f>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f t="shared" si="51"/>
-        <v xml:space="preserve"> &gt; Stories</v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve"> &gt; Events</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="10" t="str">
         <f>_xlfn.CONCAT("VA.gov home",G29,H29)</f>
-        <v>VA.gov home &gt; Region health care &gt; Stories</v>
+        <v>VA.gov home &gt; Region health care &gt; Events</v>
       </c>
       <c r="L29" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="L29:M31" si="53">_xlfn.CONCAT(LOWER(SUBSTITUTE(B29," ","-")),"/")</f>
         <v>region-health-care/</v>
       </c>
       <c r="M29" s="2" t="str">
-        <f t="shared" si="52"/>
-        <v>stories/</v>
+        <f t="shared" si="53"/>
+        <v>events/</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="10" t="str">
-        <f t="shared" si="54"/>
-        <v>/region-health-care/stories/</v>
+        <f>_xlfn.CONCAT("/",L29,M29)</f>
+        <v>/region-health-care/events/</v>
       </c>
       <c r="Q29" s="2" t="str">
-        <f>_xlfn.CONCAT(" ", PROPER(B29)," |")</f>
+        <f t="shared" si="50"/>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R29" s="2" t="str">
         <f>_xlfn.CONCAT(PROPER(C29)," |")</f>
-        <v>Stories |</v>
+        <v>Events |</v>
       </c>
       <c r="S29" s="4" t="str">
-        <f t="shared" ref="S29" si="56">_xlfn.CONCAT(R29,Q29," Veterans Affairs")</f>
-        <v>Stories | Region Health Care | Veterans Affairs</v>
+        <f t="shared" ref="S29" si="54">_xlfn.CONCAT(R29,Q29," Veterans Affairs")</f>
+        <v>Events | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T29" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="14"/>
       <c r="F30" s="10" t="str">
         <f>C30</f>
-        <v>About us</v>
+        <v>News releases</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f t="shared" ref="G30:H32" si="57">_xlfn.CONCAT(" &gt; ",  B30)</f>
+        <f t="shared" si="52"/>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f t="shared" si="57"/>
-        <v xml:space="preserve"> &gt; About us</v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve"> &gt; News releases</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="10" t="str">
         <f>_xlfn.CONCAT("VA.gov home",G30,H30)</f>
-        <v>VA.gov home &gt; Region health care &gt; About us</v>
+        <v>VA.gov home &gt; Region health care &gt; News releases</v>
       </c>
       <c r="L30" s="2" t="str">
-        <f t="shared" ref="L30:M32" si="58">_xlfn.CONCAT(LOWER(SUBSTITUTE(B30," ","-")),"/")</f>
+        <f t="shared" si="53"/>
         <v>region-health-care/</v>
       </c>
       <c r="M30" s="2" t="str">
-        <f t="shared" si="58"/>
-        <v>about-us/</v>
+        <f t="shared" si="53"/>
+        <v>news-releases/</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="10" t="str">
-        <f t="shared" si="54"/>
-        <v>/region-health-care/about-us/</v>
+        <f t="shared" ref="P30:P33" si="55">_xlfn.CONCAT("/",L30,M30)</f>
+        <v>/region-health-care/news-releases/</v>
       </c>
       <c r="Q30" s="2" t="str">
-        <f>_xlfn.CONCAT(" ", PROPER(B30)," |")</f>
+        <f t="shared" si="50"/>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R30" s="2" t="str">
         <f>_xlfn.CONCAT(PROPER(C30)," |")</f>
-        <v>About Us |</v>
+        <v>News Releases |</v>
       </c>
       <c r="S30" s="4" t="str">
-        <f t="shared" ref="S30:S31" si="59">_xlfn.CONCAT(R30,Q30," Veterans Affairs")</f>
-        <v>About Us | Region Health Care | Veterans Affairs</v>
+        <f t="shared" ref="S30" si="56">_xlfn.CONCAT(R30,Q30," Veterans Affairs")</f>
+        <v>News Releases | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T30" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>75</v>
+      <c r="A31" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="14"/>
       <c r="F31" s="10" t="str">
-        <f>D31</f>
-        <v>Mission and vision</v>
+        <f>C31</f>
+        <v>Stories</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f t="shared" si="57"/>
-        <v xml:space="preserve"> &gt; About us</v>
-      </c>
-      <c r="I31" s="2" t="str">
-        <f>_xlfn.CONCAT(" &gt; ",  D31)</f>
-        <v xml:space="preserve"> &gt; Mission and vision</v>
-      </c>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve"> &gt; Stories</v>
+      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="10" t="str">
-        <f>_xlfn.CONCAT("VA.gov home",G31,H31,I31)</f>
-        <v>VA.gov home &gt; Region health care &gt; About us &gt; Mission and vision</v>
+        <f>_xlfn.CONCAT("VA.gov home",G31,H31)</f>
+        <v>VA.gov home &gt; Region health care &gt; Stories</v>
       </c>
       <c r="L31" s="2" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>region-health-care/</v>
       </c>
       <c r="M31" s="2" t="str">
-        <f t="shared" si="58"/>
-        <v>about-us/</v>
-      </c>
-      <c r="N31" s="2" t="str">
-        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(D31," ","-")),"/")</f>
-        <v>mission-and-vision/</v>
-      </c>
+        <f t="shared" si="53"/>
+        <v>stories/</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="10" t="str">
-        <f>_xlfn.CONCAT("/",L31,M31,N31)</f>
-        <v>/region-health-care/about-us/mission-and-vision/</v>
+        <f t="shared" si="55"/>
+        <v>/region-health-care/stories/</v>
       </c>
       <c r="Q31" s="2" t="str">
-        <f>_xlfn.CONCAT(" ", PROPER(B31)," |")</f>
+        <f t="shared" si="50"/>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R31" s="2" t="str">
-        <f>_xlfn.CONCAT(PROPER(D31)," |")</f>
-        <v>Mission And Vision |</v>
+        <f>_xlfn.CONCAT(PROPER(C31)," |")</f>
+        <v>Stories |</v>
       </c>
       <c r="S31" s="4" t="str">
-        <f t="shared" si="59"/>
-        <v>Mission And Vision | Region Health Care | Veterans Affairs</v>
+        <f t="shared" ref="S31" si="57">_xlfn.CONCAT(R31,Q31," Veterans Affairs")</f>
+        <v>Stories | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T31" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="A32" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" t="s">
+        <v>117</v>
+      </c>
+      <c r="U32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="D32" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="10" t="str">
-        <f>D32</f>
-        <v>History</v>
-      </c>
-      <c r="G32" s="2" t="str">
-        <f t="shared" si="57"/>
-        <v xml:space="preserve"> &gt; Region health care</v>
-      </c>
-      <c r="H32" s="2" t="str">
-        <f t="shared" si="57"/>
-        <v xml:space="preserve"> &gt; About us</v>
-      </c>
-      <c r="I32" s="2" t="str">
-        <f>_xlfn.CONCAT(" &gt; ",  D32)</f>
-        <v xml:space="preserve"> &gt; History</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="10" t="str">
-        <f>_xlfn.CONCAT("VA.gov home",G32,H32,I32)</f>
-        <v>VA.gov home &gt; Region health care &gt; About us &gt; History</v>
-      </c>
-      <c r="L32" s="2" t="str">
-        <f t="shared" si="58"/>
-        <v>region-health-care/</v>
-      </c>
-      <c r="M32" s="2" t="str">
-        <f t="shared" si="58"/>
-        <v>about-us/</v>
-      </c>
-      <c r="N32" s="2" t="str">
-        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(D32," ","-")),"/")</f>
-        <v>history/</v>
-      </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="10" t="str">
-        <f t="shared" ref="P32:P34" si="60">_xlfn.CONCAT("/",L32,M32,N32)</f>
-        <v>/region-health-care/about-us/history/</v>
-      </c>
-      <c r="Q32" s="2" t="str">
-        <f>_xlfn.CONCAT(" ", PROPER(B32)," |")</f>
-        <v xml:space="preserve"> Region Health Care |</v>
-      </c>
-      <c r="R32" s="2" t="str">
-        <f>_xlfn.CONCAT(PROPER(D32)," |")</f>
-        <v>History |</v>
-      </c>
-      <c r="S32" s="4" t="str">
-        <f t="shared" ref="S32:S36" si="61">_xlfn.CONCAT(R32,Q32," Veterans Affairs")</f>
-        <v>History | Region Health Care | Veterans Affairs</v>
-      </c>
-      <c r="T32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>77</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -2972,59 +2879,51 @@
       <c r="C33" t="s">
         <v>74</v>
       </c>
-      <c r="D33" t="s">
-        <v>77</v>
-      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="14"/>
       <c r="F33" s="10" t="str">
-        <f t="shared" ref="F33:F34" si="62">D33</f>
-        <v>Performance</v>
+        <f>C33</f>
+        <v>About us</v>
       </c>
       <c r="G33" s="2" t="str">
-        <f t="shared" ref="G33:G34" si="63">_xlfn.CONCAT(" &gt; ",  B33)</f>
+        <f t="shared" ref="G33:H35" si="58">_xlfn.CONCAT(" &gt; ",  B33)</f>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H33" s="2" t="str">
-        <f t="shared" ref="H33:H34" si="64">_xlfn.CONCAT(" &gt; ",  C33)</f>
+        <f t="shared" si="58"/>
         <v xml:space="preserve"> &gt; About us</v>
       </c>
-      <c r="I33" s="2" t="str">
-        <f t="shared" ref="I33:I34" si="65">_xlfn.CONCAT(" &gt; ",  D33)</f>
-        <v xml:space="preserve"> &gt; Performance</v>
-      </c>
+      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="10" t="str">
-        <f t="shared" ref="K33:K34" si="66">_xlfn.CONCAT("VA.gov home",G33,H33,I33)</f>
-        <v>VA.gov home &gt; Region health care &gt; About us &gt; Performance</v>
+        <f>_xlfn.CONCAT("VA.gov home",G33,H33)</f>
+        <v>VA.gov home &gt; Region health care &gt; About us</v>
       </c>
       <c r="L33" s="2" t="str">
-        <f t="shared" ref="L33:L34" si="67">_xlfn.CONCAT(LOWER(SUBSTITUTE(B33," ","-")),"/")</f>
+        <f t="shared" ref="L33:M35" si="59">_xlfn.CONCAT(LOWER(SUBSTITUTE(B33," ","-")),"/")</f>
         <v>region-health-care/</v>
       </c>
       <c r="M33" s="2" t="str">
-        <f t="shared" ref="M33:M34" si="68">_xlfn.CONCAT(LOWER(SUBSTITUTE(C33," ","-")),"/")</f>
+        <f t="shared" si="59"/>
         <v>about-us/</v>
       </c>
-      <c r="N33" s="2" t="str">
-        <f t="shared" ref="N33:N34" si="69">_xlfn.CONCAT(LOWER(SUBSTITUTE(D33," ","-")),"/")</f>
-        <v>performance/</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="10" t="str">
-        <f t="shared" si="60"/>
-        <v>/region-health-care/about-us/performance/</v>
+        <f t="shared" si="55"/>
+        <v>/region-health-care/about-us/</v>
       </c>
       <c r="Q33" s="2" t="str">
-        <f t="shared" ref="Q33:Q34" si="70">_xlfn.CONCAT(" ", PROPER(B33)," |")</f>
+        <f t="shared" si="50"/>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R33" s="2" t="str">
-        <f t="shared" ref="R33:R34" si="71">_xlfn.CONCAT(PROPER(D33)," |")</f>
-        <v>Performance |</v>
+        <f>_xlfn.CONCAT(PROPER(C33)," |")</f>
+        <v>About Us |</v>
       </c>
       <c r="S33" s="4" t="str">
-        <f t="shared" si="61"/>
-        <v>Performance | Region Health Care | Veterans Affairs</v>
+        <f t="shared" ref="S33:S34" si="60">_xlfn.CONCAT(R33,Q33," Veterans Affairs")</f>
+        <v>About Us | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T33" t="s">
         <v>37</v>
@@ -3032,7 +2931,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -3041,507 +2940,515 @@
         <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="10" t="str">
-        <f t="shared" si="62"/>
-        <v>Leadership</v>
+        <f>D34</f>
+        <v>Mission and vision</v>
       </c>
       <c r="G34" s="2" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H34" s="2" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v xml:space="preserve"> &gt; About us</v>
       </c>
       <c r="I34" s="2" t="str">
-        <f t="shared" si="65"/>
-        <v xml:space="preserve"> &gt; Leadership</v>
+        <f>_xlfn.CONCAT(" &gt; ",  D34)</f>
+        <v xml:space="preserve"> &gt; Mission and vision</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="10" t="str">
-        <f t="shared" si="66"/>
-        <v>VA.gov home &gt; Region health care &gt; About us &gt; Leadership</v>
+        <f>_xlfn.CONCAT("VA.gov home",G34,H34,I34)</f>
+        <v>VA.gov home &gt; Region health care &gt; About us &gt; Mission and vision</v>
       </c>
       <c r="L34" s="2" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="59"/>
         <v>region-health-care/</v>
       </c>
       <c r="M34" s="2" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="59"/>
         <v>about-us/</v>
       </c>
       <c r="N34" s="2" t="str">
-        <f t="shared" si="69"/>
-        <v>leadership/</v>
+        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(D34," ","-")),"/")</f>
+        <v>mission-and-vision/</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="10" t="str">
+        <f>_xlfn.CONCAT("/",L34,M34,N34)</f>
+        <v>/region-health-care/about-us/mission-and-vision/</v>
+      </c>
+      <c r="Q34" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve"> Region Health Care |</v>
+      </c>
+      <c r="R34" s="2" t="str">
+        <f>_xlfn.CONCAT(PROPER(D34)," |")</f>
+        <v>Mission And Vision |</v>
+      </c>
+      <c r="S34" s="4" t="str">
         <f t="shared" si="60"/>
-        <v>/region-health-care/about-us/leadership/</v>
-      </c>
-      <c r="Q34" s="2" t="str">
-        <f t="shared" si="70"/>
-        <v xml:space="preserve"> Region Health Care |</v>
-      </c>
-      <c r="R34" s="2" t="str">
-        <f t="shared" si="71"/>
-        <v>Leadership |</v>
-      </c>
-      <c r="S34" s="4" t="str">
-        <f t="shared" si="61"/>
-        <v>Leadership | Region Health Care | Veterans Affairs</v>
+        <v>Mission And Vision | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T34" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>80</v>
+      <c r="A35" t="s">
+        <v>76</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
       <c r="E35" s="14"/>
       <c r="F35" s="10" t="str">
-        <f>C35</f>
-        <v>Policies</v>
+        <f>D35</f>
+        <v>History</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f t="shared" ref="G35:G44" si="72">_xlfn.CONCAT(" &gt; ",  B35)</f>
+        <f t="shared" si="58"/>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H35" s="2" t="str">
-        <f t="shared" ref="H35:H44" si="73">_xlfn.CONCAT(" &gt; ",  C35)</f>
-        <v xml:space="preserve"> &gt; Policies</v>
-      </c>
-      <c r="I35" s="2"/>
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> &gt; About us</v>
+      </c>
+      <c r="I35" s="2" t="str">
+        <f>_xlfn.CONCAT(" &gt; ",  D35)</f>
+        <v xml:space="preserve"> &gt; History</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="10" t="str">
-        <f>_xlfn.CONCAT("VA.gov home",G35,H35)</f>
-        <v>VA.gov home &gt; Region health care &gt; Policies</v>
+        <f>_xlfn.CONCAT("VA.gov home",G35,H35,I35)</f>
+        <v>VA.gov home &gt; Region health care &gt; About us &gt; History</v>
       </c>
       <c r="L35" s="2" t="str">
-        <f t="shared" ref="L35:L44" si="74">_xlfn.CONCAT(LOWER(SUBSTITUTE(B35," ","-")),"/")</f>
+        <f t="shared" si="59"/>
         <v>region-health-care/</v>
       </c>
       <c r="M35" s="2" t="str">
-        <f t="shared" ref="M35:M44" si="75">_xlfn.CONCAT(LOWER(SUBSTITUTE(C35," ","-")),"/")</f>
-        <v>policies/</v>
-      </c>
-      <c r="N35" s="2"/>
+        <f t="shared" si="59"/>
+        <v>about-us/</v>
+      </c>
+      <c r="N35" s="2" t="str">
+        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(D35," ","-")),"/")</f>
+        <v>history/</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" s="10" t="str">
-        <f>_xlfn.CONCAT("/",L35,M35)</f>
-        <v>/region-health-care/policies/</v>
+        <f t="shared" ref="P35:P37" si="61">_xlfn.CONCAT("/",L35,M35,N35)</f>
+        <v>/region-health-care/about-us/history/</v>
       </c>
       <c r="Q35" s="2" t="str">
-        <f t="shared" ref="Q35:Q44" si="76">_xlfn.CONCAT(" ", PROPER(B35)," |")</f>
+        <f t="shared" si="50"/>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R35" s="2" t="str">
-        <f>_xlfn.CONCAT(PROPER(C35)," |")</f>
-        <v>Policies |</v>
+        <f>_xlfn.CONCAT(PROPER(D35)," |")</f>
+        <v>History |</v>
       </c>
       <c r="S35" s="4" t="str">
-        <f t="shared" si="61"/>
-        <v>Policies | Region Health Care | Veterans Affairs</v>
+        <f t="shared" ref="S35:S39" si="62">_xlfn.CONCAT(R35,Q35," Veterans Affairs")</f>
+        <v>History | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T35" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>82</v>
+      <c r="A36" t="s">
+        <v>77</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
       <c r="E36" s="14"/>
       <c r="F36" s="10" t="str">
-        <f>C36</f>
-        <v>Programs</v>
+        <f t="shared" ref="F36:F37" si="63">D36</f>
+        <v>Performance</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="G36:G37" si="64">_xlfn.CONCAT(" &gt; ",  B36)</f>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H36" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve"> &gt; Programs</v>
-      </c>
-      <c r="I36" s="2"/>
+        <f t="shared" ref="H36:H37" si="65">_xlfn.CONCAT(" &gt; ",  C36)</f>
+        <v xml:space="preserve"> &gt; About us</v>
+      </c>
+      <c r="I36" s="2" t="str">
+        <f t="shared" ref="I36:I37" si="66">_xlfn.CONCAT(" &gt; ",  D36)</f>
+        <v xml:space="preserve"> &gt; Performance</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="10" t="str">
-        <f>_xlfn.CONCAT("VA.gov home",G36,H36)</f>
-        <v>VA.gov home &gt; Region health care &gt; Programs</v>
+        <f t="shared" ref="K36:K37" si="67">_xlfn.CONCAT("VA.gov home",G36,H36,I36)</f>
+        <v>VA.gov home &gt; Region health care &gt; About us &gt; Performance</v>
       </c>
       <c r="L36" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="L36:L37" si="68">_xlfn.CONCAT(LOWER(SUBSTITUTE(B36," ","-")),"/")</f>
         <v>region-health-care/</v>
       </c>
       <c r="M36" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v>programs/</v>
-      </c>
-      <c r="N36" s="2"/>
+        <f t="shared" ref="M36:M37" si="69">_xlfn.CONCAT(LOWER(SUBSTITUTE(C36," ","-")),"/")</f>
+        <v>about-us/</v>
+      </c>
+      <c r="N36" s="2" t="str">
+        <f t="shared" ref="N36:N37" si="70">_xlfn.CONCAT(LOWER(SUBSTITUTE(D36," ","-")),"/")</f>
+        <v>performance/</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" s="10" t="str">
-        <f t="shared" ref="P36:P39" si="77">_xlfn.CONCAT("/",L36,M36)</f>
-        <v>/region-health-care/programs/</v>
+        <f t="shared" si="61"/>
+        <v>/region-health-care/about-us/performance/</v>
       </c>
       <c r="Q36" s="2" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="Q36:Q37" si="71">_xlfn.CONCAT(" ", PROPER(B36)," |")</f>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R36" s="2" t="str">
-        <f>_xlfn.CONCAT(PROPER(C36)," |")</f>
-        <v>Programs |</v>
+        <f t="shared" ref="R36:R37" si="72">_xlfn.CONCAT(PROPER(D36)," |")</f>
+        <v>Performance |</v>
       </c>
       <c r="S36" s="4" t="str">
-        <f t="shared" si="61"/>
-        <v>Programs | Region Health Care | Veterans Affairs</v>
+        <f t="shared" si="62"/>
+        <v>Performance | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T36" t="s">
         <v>37</v>
       </c>
-      <c r="U36" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>84</v>
+      <c r="A37" t="s">
+        <v>78</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
       <c r="E37" s="14"/>
       <c r="F37" s="10" t="str">
-        <f>C37</f>
-        <v>Research</v>
+        <f t="shared" si="63"/>
+        <v>Leadership</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="64"/>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H37" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve"> &gt; Research</v>
-      </c>
-      <c r="I37" s="2"/>
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> &gt; About us</v>
+      </c>
+      <c r="I37" s="2" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> &gt; Leadership</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="10" t="str">
-        <f>_xlfn.CONCAT("VA.gov home",G37,H37)</f>
-        <v>VA.gov home &gt; Region health care &gt; Research</v>
+        <f t="shared" si="67"/>
+        <v>VA.gov home &gt; Region health care &gt; About us &gt; Leadership</v>
       </c>
       <c r="L37" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>region-health-care/</v>
       </c>
       <c r="M37" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v>research/</v>
-      </c>
-      <c r="N37" s="2"/>
+        <f t="shared" si="69"/>
+        <v>about-us/</v>
+      </c>
+      <c r="N37" s="2" t="str">
+        <f t="shared" si="70"/>
+        <v>leadership/</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" s="10" t="str">
-        <f t="shared" si="77"/>
-        <v>/region-health-care/research/</v>
+        <f t="shared" si="61"/>
+        <v>/region-health-care/about-us/leadership/</v>
       </c>
       <c r="Q37" s="2" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="71"/>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R37" s="2" t="str">
-        <f>_xlfn.CONCAT(PROPER(C37)," |")</f>
-        <v>Research |</v>
+        <f t="shared" si="72"/>
+        <v>Leadership |</v>
       </c>
       <c r="S37" s="4" t="str">
-        <f t="shared" ref="S37" si="78">_xlfn.CONCAT(R37,Q37," Veterans Affairs")</f>
-        <v>Research | Region Health Care | Veterans Affairs</v>
+        <f t="shared" si="62"/>
+        <v>Leadership | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T37" t="s">
-        <v>37</v>
-      </c>
-      <c r="U37" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="14"/>
       <c r="F38" s="10" t="str">
         <f>C38</f>
-        <v>VA police</v>
+        <v>Policies</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="G38:G47" si="73">_xlfn.CONCAT(" &gt; ",  B38)</f>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H38" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve"> &gt; VA police</v>
+        <f t="shared" ref="H38:H47" si="74">_xlfn.CONCAT(" &gt; ",  C38)</f>
+        <v xml:space="preserve"> &gt; Policies</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="10" t="str">
         <f>_xlfn.CONCAT("VA.gov home",G38,H38)</f>
-        <v>VA.gov home &gt; Region health care &gt; VA police</v>
+        <v>VA.gov home &gt; Region health care &gt; Policies</v>
       </c>
       <c r="L38" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="L38:L47" si="75">_xlfn.CONCAT(LOWER(SUBSTITUTE(B38," ","-")),"/")</f>
         <v>region-health-care/</v>
       </c>
       <c r="M38" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v>va-police/</v>
+        <f t="shared" ref="M38:M47" si="76">_xlfn.CONCAT(LOWER(SUBSTITUTE(C38," ","-")),"/")</f>
+        <v>policies/</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="10" t="str">
-        <f t="shared" si="77"/>
-        <v>/region-health-care/va-police/</v>
+        <f>_xlfn.CONCAT("/",L38,M38)</f>
+        <v>/region-health-care/policies/</v>
       </c>
       <c r="Q38" s="2" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="Q38:Q47" si="77">_xlfn.CONCAT(" ", PROPER(B38)," |")</f>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R38" s="2" t="str">
         <f>_xlfn.CONCAT(PROPER(C38)," |")</f>
-        <v>Va Police |</v>
-      </c>
-      <c r="S38" s="4" t="s">
-        <v>86</v>
+        <v>Policies |</v>
+      </c>
+      <c r="S38" s="4" t="str">
+        <f t="shared" si="62"/>
+        <v>Policies | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T38" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>88</v>
+      <c r="C39" t="s">
+        <v>82</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="14"/>
       <c r="F39" s="10" t="str">
         <f>C39</f>
-        <v>Work with us</v>
+        <v>Programs</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H39" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve"> &gt; Work with us</v>
+        <f t="shared" si="74"/>
+        <v xml:space="preserve"> &gt; Programs</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="10" t="str">
         <f>_xlfn.CONCAT("VA.gov home",G39,H39)</f>
-        <v>VA.gov home &gt; Region health care &gt; Work with us</v>
+        <v>VA.gov home &gt; Region health care &gt; Programs</v>
       </c>
       <c r="L39" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>region-health-care/</v>
       </c>
       <c r="M39" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v>work-with-us/</v>
+        <f t="shared" si="76"/>
+        <v>programs/</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="10" t="str">
+        <f t="shared" ref="P39:P42" si="78">_xlfn.CONCAT("/",L39,M39)</f>
+        <v>/region-health-care/programs/</v>
+      </c>
+      <c r="Q39" s="2" t="str">
         <f t="shared" si="77"/>
-        <v>/region-health-care/work-with-us/</v>
-      </c>
-      <c r="Q39" s="2" t="str">
-        <f t="shared" si="76"/>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R39" s="2" t="str">
         <f>_xlfn.CONCAT(PROPER(C39)," |")</f>
-        <v>Work With Us |</v>
+        <v>Programs |</v>
       </c>
       <c r="S39" s="4" t="str">
-        <f t="shared" ref="S39:S40" si="79">_xlfn.CONCAT(R39,Q39," Veterans Affairs")</f>
-        <v>Work With Us | Region Health Care | Veterans Affairs</v>
+        <f t="shared" si="62"/>
+        <v>Programs | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T39" t="s">
         <v>37</v>
       </c>
+      <c r="U39" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>89</v>
+      <c r="A40" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" t="s">
-        <v>89</v>
-      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="14"/>
       <c r="F40" s="10" t="str">
-        <f>D40</f>
-        <v>Jobs and careers</v>
+        <f>C40</f>
+        <v>Research</v>
       </c>
       <c r="G40" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H40" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve"> &gt; Work with us</v>
-      </c>
-      <c r="I40" s="2" t="str">
-        <f>_xlfn.CONCAT(" &gt; ",  D40)</f>
-        <v xml:space="preserve"> &gt; Jobs and careers</v>
-      </c>
+        <f t="shared" si="74"/>
+        <v xml:space="preserve"> &gt; Research</v>
+      </c>
+      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="10" t="str">
-        <f>_xlfn.CONCAT("VA.gov home",G40,H40,I40)</f>
-        <v>VA.gov home &gt; Region health care &gt; Work with us &gt; Jobs and careers</v>
+        <f>_xlfn.CONCAT("VA.gov home",G40,H40)</f>
+        <v>VA.gov home &gt; Region health care &gt; Research</v>
       </c>
       <c r="L40" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>region-health-care/</v>
       </c>
       <c r="M40" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v>work-with-us/</v>
-      </c>
-      <c r="N40" s="2" t="str">
-        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(D40," ","-")),"/")</f>
-        <v>jobs-and-careers/</v>
-      </c>
+        <f t="shared" si="76"/>
+        <v>research/</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="10" t="str">
-        <f>_xlfn.CONCAT("/",L40,M40,N40)</f>
-        <v>/region-health-care/work-with-us/jobs-and-careers/</v>
+        <f t="shared" si="78"/>
+        <v>/region-health-care/research/</v>
       </c>
       <c r="Q40" s="2" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R40" s="2" t="str">
-        <f>_xlfn.CONCAT(PROPER(D40)," |")</f>
-        <v>Jobs And Careers |</v>
+        <f>_xlfn.CONCAT(PROPER(C40)," |")</f>
+        <v>Research |</v>
       </c>
       <c r="S40" s="4" t="str">
-        <f t="shared" si="79"/>
-        <v>Jobs And Careers | Region Health Care | Veterans Affairs</v>
+        <f t="shared" ref="S40" si="79">_xlfn.CONCAT(R40,Q40," Veterans Affairs")</f>
+        <v>Research | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T40" t="s">
         <v>37</v>
       </c>
+      <c r="U40" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>90</v>
+      <c r="A41" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" t="s">
-        <v>90</v>
-      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="14"/>
       <c r="F41" s="10" t="str">
-        <f>D41</f>
-        <v>Internships and fellowships</v>
+        <f>C41</f>
+        <v>VA police</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H41" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve"> &gt; Work with us</v>
-      </c>
-      <c r="I41" s="2" t="str">
-        <f>_xlfn.CONCAT(" &gt; ",  D41)</f>
-        <v xml:space="preserve"> &gt; Internships and fellowships</v>
-      </c>
+        <f t="shared" si="74"/>
+        <v xml:space="preserve"> &gt; VA police</v>
+      </c>
+      <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="10" t="str">
-        <f>_xlfn.CONCAT("VA.gov home",G41,H41,I41)</f>
-        <v>VA.gov home &gt; Region health care &gt; Work with us &gt; Internships and fellowships</v>
+        <f>_xlfn.CONCAT("VA.gov home",G41,H41)</f>
+        <v>VA.gov home &gt; Region health care &gt; VA police</v>
       </c>
       <c r="L41" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>region-health-care/</v>
       </c>
       <c r="M41" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v>work-with-us/</v>
-      </c>
-      <c r="N41" s="2" t="str">
-        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(D41," ","-")),"/")</f>
-        <v>internships-and-fellowships/</v>
-      </c>
+        <f t="shared" si="76"/>
+        <v>va-police/</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="10" t="str">
-        <f t="shared" ref="P41:P43" si="80">_xlfn.CONCAT("/",L41,M41,N41)</f>
-        <v>/region-health-care/work-with-us/internships-and-fellowships/</v>
+        <f t="shared" si="78"/>
+        <v>/region-health-care/va-police/</v>
       </c>
       <c r="Q41" s="2" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R41" s="2" t="str">
-        <f>_xlfn.CONCAT(PROPER(D41)," |")</f>
-        <v>Internships And Fellowships |</v>
-      </c>
-      <c r="S41" s="4" t="str">
-        <f t="shared" ref="S41:S44" si="81">_xlfn.CONCAT(R41,Q41," Veterans Affairs")</f>
-        <v>Internships And Fellowships | Region Health Care | Veterans Affairs</v>
+        <f>_xlfn.CONCAT(PROPER(C41)," |")</f>
+        <v>Va Police |</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="T41" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>91</v>
+      <c r="A42" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -3549,59 +3456,51 @@
       <c r="C42" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D42" t="s">
-        <v>91</v>
-      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="14"/>
       <c r="F42" s="10" t="str">
-        <f>D42</f>
-        <v>Volunteer or donate</v>
+        <f>C42</f>
+        <v>Work with us</v>
       </c>
       <c r="G42" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H42" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v xml:space="preserve"> &gt; Work with us</v>
       </c>
-      <c r="I42" s="2" t="str">
-        <f>_xlfn.CONCAT(" &gt; ",  D42)</f>
-        <v xml:space="preserve"> &gt; Volunteer or donate</v>
-      </c>
+      <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="10" t="str">
-        <f>_xlfn.CONCAT("VA.gov home",G42,H42,I42)</f>
-        <v>VA.gov home &gt; Region health care &gt; Work with us &gt; Volunteer or donate</v>
+        <f>_xlfn.CONCAT("VA.gov home",G42,H42)</f>
+        <v>VA.gov home &gt; Region health care &gt; Work with us</v>
       </c>
       <c r="L42" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>region-health-care/</v>
       </c>
       <c r="M42" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>work-with-us/</v>
       </c>
-      <c r="N42" s="2" t="str">
-        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(D42," ","-")),"/")</f>
-        <v>volunteer-or-donate/</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="10" t="str">
-        <f t="shared" si="80"/>
-        <v>/region-health-care/work-with-us/volunteer-or-donate/</v>
+        <f t="shared" si="78"/>
+        <v>/region-health-care/work-with-us/</v>
       </c>
       <c r="Q42" s="2" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R42" s="2" t="str">
-        <f>_xlfn.CONCAT(PROPER(D42)," |")</f>
-        <v>Volunteer Or Donate |</v>
+        <f>_xlfn.CONCAT(PROPER(C42)," |")</f>
+        <v>Work With Us |</v>
       </c>
       <c r="S42" s="4" t="str">
-        <f t="shared" si="81"/>
-        <v>Volunteer Or Donate | Region Health Care | Veterans Affairs</v>
+        <f t="shared" ref="S42:S43" si="80">_xlfn.CONCAT(R42,Q42," Veterans Affairs")</f>
+        <v>Work With Us | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T42" t="s">
         <v>37</v>
@@ -3609,7 +3508,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
@@ -3618,210 +3517,414 @@
         <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="10" t="str">
         <f>D43</f>
-        <v xml:space="preserve">Doing business with us </v>
+        <v>Jobs and careers</v>
       </c>
       <c r="G43" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H43" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v xml:space="preserve"> &gt; Work with us</v>
       </c>
       <c r="I43" s="2" t="str">
         <f>_xlfn.CONCAT(" &gt; ",  D43)</f>
-        <v xml:space="preserve"> &gt; Doing business with us </v>
+        <v xml:space="preserve"> &gt; Jobs and careers</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="10" t="str">
         <f>_xlfn.CONCAT("VA.gov home",G43,H43,I43)</f>
-        <v xml:space="preserve">VA.gov home &gt; Region health care &gt; Work with us &gt; Doing business with us </v>
+        <v>VA.gov home &gt; Region health care &gt; Work with us &gt; Jobs and careers</v>
       </c>
       <c r="L43" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>region-health-care/</v>
       </c>
       <c r="M43" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>work-with-us/</v>
       </c>
       <c r="N43" s="2" t="str">
         <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(D43," ","-")),"/")</f>
-        <v>doing-business-with-us-/</v>
+        <v>jobs-and-careers/</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="10" t="str">
-        <f t="shared" si="80"/>
-        <v>/region-health-care/work-with-us/doing-business-with-us-/</v>
+        <f>_xlfn.CONCAT("/",L43,M43,N43)</f>
+        <v>/region-health-care/work-with-us/jobs-and-careers/</v>
       </c>
       <c r="Q43" s="2" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R43" s="2" t="str">
         <f>_xlfn.CONCAT(PROPER(D43)," |")</f>
-        <v>Doing Business With Us  |</v>
+        <v>Jobs And Careers |</v>
       </c>
       <c r="S43" s="4" t="str">
-        <f t="shared" si="81"/>
-        <v>Doing Business With Us  | Region Health Care | Veterans Affairs</v>
+        <f t="shared" si="80"/>
+        <v>Jobs And Careers | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T43" t="s">
         <v>37</v>
       </c>
-      <c r="U43" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>93</v>
+      <c r="A44" t="s">
+        <v>90</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
       <c r="E44" s="14"/>
       <c r="F44" s="10" t="str">
-        <f>C44</f>
-        <v>Contact us</v>
+        <f>D44</f>
+        <v>Internships and fellowships</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve"> &gt; Region health care</v>
       </c>
       <c r="H44" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve"> &gt; Contact us</v>
-      </c>
-      <c r="I44" s="2"/>
+        <f t="shared" si="74"/>
+        <v xml:space="preserve"> &gt; Work with us</v>
+      </c>
+      <c r="I44" s="2" t="str">
+        <f>_xlfn.CONCAT(" &gt; ",  D44)</f>
+        <v xml:space="preserve"> &gt; Internships and fellowships</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="10" t="str">
-        <f>_xlfn.CONCAT("VA.gov home",G44,H44)</f>
-        <v>VA.gov home &gt; Region health care &gt; Contact us</v>
+        <f>_xlfn.CONCAT("VA.gov home",G44,H44,I44)</f>
+        <v>VA.gov home &gt; Region health care &gt; Work with us &gt; Internships and fellowships</v>
       </c>
       <c r="L44" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>region-health-care/</v>
       </c>
       <c r="M44" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v>contact-us/</v>
-      </c>
-      <c r="N44" s="2"/>
+        <f t="shared" si="76"/>
+        <v>work-with-us/</v>
+      </c>
+      <c r="N44" s="2" t="str">
+        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(D44," ","-")),"/")</f>
+        <v>internships-and-fellowships/</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" s="10" t="str">
-        <f>_xlfn.CONCAT("/",L44,M44)</f>
-        <v>/region-health-care/contact-us/</v>
+        <f t="shared" ref="P44:P46" si="81">_xlfn.CONCAT("/",L44,M44,N44)</f>
+        <v>/region-health-care/work-with-us/internships-and-fellowships/</v>
       </c>
       <c r="Q44" s="2" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v xml:space="preserve"> Region Health Care |</v>
       </c>
       <c r="R44" s="2" t="str">
-        <f>_xlfn.CONCAT(PROPER(C44)," |")</f>
-        <v>Contact Us |</v>
+        <f>_xlfn.CONCAT(PROPER(D44)," |")</f>
+        <v>Internships And Fellowships |</v>
       </c>
       <c r="S44" s="4" t="str">
-        <f t="shared" si="81"/>
-        <v>Contact Us | Region Health Care | Veterans Affairs</v>
+        <f t="shared" ref="S44:S47" si="82">_xlfn.CONCAT(R44,Q44," Veterans Affairs")</f>
+        <v>Internships And Fellowships | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="V45" s="19"/>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="10" t="str">
+        <f>D45</f>
+        <v>Volunteer or donate</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v xml:space="preserve"> &gt; Region health care</v>
+      </c>
+      <c r="H45" s="2" t="str">
+        <f t="shared" si="74"/>
+        <v xml:space="preserve"> &gt; Work with us</v>
+      </c>
+      <c r="I45" s="2" t="str">
+        <f>_xlfn.CONCAT(" &gt; ",  D45)</f>
+        <v xml:space="preserve"> &gt; Volunteer or donate</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="10" t="str">
+        <f>_xlfn.CONCAT("VA.gov home",G45,H45,I45)</f>
+        <v>VA.gov home &gt; Region health care &gt; Work with us &gt; Volunteer or donate</v>
+      </c>
+      <c r="L45" s="2" t="str">
+        <f t="shared" si="75"/>
+        <v>region-health-care/</v>
+      </c>
+      <c r="M45" s="2" t="str">
+        <f t="shared" si="76"/>
+        <v>work-with-us/</v>
+      </c>
+      <c r="N45" s="2" t="str">
+        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(D45," ","-")),"/")</f>
+        <v>volunteer-or-donate/</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" s="10" t="str">
+        <f t="shared" si="81"/>
+        <v>/region-health-care/work-with-us/volunteer-or-donate/</v>
+      </c>
+      <c r="Q45" s="2" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> Region Health Care |</v>
+      </c>
+      <c r="R45" s="2" t="str">
+        <f>_xlfn.CONCAT(PROPER(D45)," |")</f>
+        <v>Volunteer Or Donate |</v>
+      </c>
+      <c r="S45" s="4" t="str">
+        <f t="shared" si="82"/>
+        <v>Volunteer Or Donate | Region Health Care | Veterans Affairs</v>
+      </c>
+      <c r="T45" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>94</v>
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="10" t="str">
+        <f>D46</f>
+        <v xml:space="preserve">Doing business with us </v>
+      </c>
+      <c r="G46" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v xml:space="preserve"> &gt; Region health care</v>
+      </c>
+      <c r="H46" s="2" t="str">
+        <f t="shared" si="74"/>
+        <v xml:space="preserve"> &gt; Work with us</v>
+      </c>
+      <c r="I46" s="2" t="str">
+        <f>_xlfn.CONCAT(" &gt; ",  D46)</f>
+        <v xml:space="preserve"> &gt; Doing business with us </v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="10" t="str">
+        <f>_xlfn.CONCAT("VA.gov home",G46,H46,I46)</f>
+        <v xml:space="preserve">VA.gov home &gt; Region health care &gt; Work with us &gt; Doing business with us </v>
+      </c>
+      <c r="L46" s="2" t="str">
+        <f t="shared" si="75"/>
+        <v>region-health-care/</v>
+      </c>
+      <c r="M46" s="2" t="str">
+        <f t="shared" si="76"/>
+        <v>work-with-us/</v>
+      </c>
+      <c r="N46" s="2" t="str">
+        <f>_xlfn.CONCAT(LOWER(SUBSTITUTE(D46," ","-")),"/")</f>
+        <v>doing-business-with-us-/</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" s="10" t="str">
+        <f t="shared" si="81"/>
+        <v>/region-health-care/work-with-us/doing-business-with-us-/</v>
+      </c>
+      <c r="Q46" s="2" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> Region Health Care |</v>
+      </c>
+      <c r="R46" s="2" t="str">
+        <f>_xlfn.CONCAT(PROPER(D46)," |")</f>
+        <v>Doing Business With Us  |</v>
+      </c>
+      <c r="S46" s="4" t="str">
+        <f t="shared" si="82"/>
+        <v>Doing Business With Us  | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T46" t="s">
-        <v>95</v>
+        <v>37</v>
+      </c>
+      <c r="U46" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="10" t="str">
+        <f>C47</f>
+        <v>Contact us</v>
+      </c>
+      <c r="G47" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v xml:space="preserve"> &gt; Region health care</v>
+      </c>
+      <c r="H47" s="2" t="str">
+        <f t="shared" si="74"/>
+        <v xml:space="preserve"> &gt; Contact us</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="10" t="str">
+        <f>_xlfn.CONCAT("VA.gov home",G47,H47)</f>
+        <v>VA.gov home &gt; Region health care &gt; Contact us</v>
+      </c>
+      <c r="L47" s="2" t="str">
+        <f t="shared" si="75"/>
+        <v>region-health-care/</v>
+      </c>
+      <c r="M47" s="2" t="str">
+        <f t="shared" si="76"/>
+        <v>contact-us/</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="10" t="str">
+        <f>_xlfn.CONCAT("/",L47,M47)</f>
+        <v>/region-health-care/contact-us/</v>
+      </c>
+      <c r="Q47" s="2" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> Region Health Care |</v>
+      </c>
+      <c r="R47" s="2" t="str">
+        <f>_xlfn.CONCAT(PROPER(C47)," |")</f>
+        <v>Contact Us |</v>
+      </c>
+      <c r="S47" s="4" t="str">
+        <f t="shared" si="82"/>
+        <v>Contact Us | Region Health Care | Veterans Affairs</v>
       </c>
       <c r="T47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="T48" t="s">
-        <v>99</v>
-      </c>
-      <c r="V48" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="V48" s="19"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="T49" t="s">
-        <v>102</v>
-      </c>
-      <c r="V49" s="18" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="T50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="T51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="V51" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="T52" t="s">
+        <v>102</v>
+      </c>
+      <c r="V52" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="T53" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="T54" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3839,15 +3942,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C8BB867EBE6384B8625AA19DC2AAC34" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="91734a7d10f41ddcec35922f7458e13b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fdb7c336-b7b0-42d5-912d-797652790446" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc5f743f004da8f8c4f3b47caad4106d" ns2:_="">
     <xsd:import namespace="fdb7c336-b7b0-42d5-912d-797652790446"/>
@@ -3991,31 +4085,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE730814-A293-4251-81C0-5B04D2CD20B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="fdb7c336-b7b0-42d5-912d-797652790446"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D7E1AA-666B-4A1E-BB99-9525902890AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CA134A2-28BF-4DF8-989A-4C23D4997F66}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4033,6 +4128,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D7E1AA-666B-4A1E-BB99-9525902890AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e95f1b23-abaf-45ee-821d-b7ab251ab3bf}" enabled="0" method="" siteId="{e95f1b23-abaf-45ee-821d-b7ab251ab3bf}" removed="1"/>
